--- a/raw_data/20200818_saline/20200818_Sensor0_Test_26.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_26.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E09F4-764A-405B-988D-34F6E878BFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>22502.929523</v>
+        <v>22502.929522999999</v>
       </c>
       <c r="B2" s="1">
-        <v>6.250814</v>
+        <v>6.2508140000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.393000</v>
+        <v>902.39300000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.397000</v>
+        <v>-196.39699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>22513.027709</v>
+        <v>22513.027709000002</v>
       </c>
       <c r="G2" s="1">
-        <v>6.253619</v>
+        <v>6.2536189999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>918.875000</v>
+        <v>918.875</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.775000</v>
+        <v>-166.77500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>22523.454962</v>
       </c>
       <c r="L2" s="1">
-        <v>6.256515</v>
+        <v>6.2565150000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>941.331000</v>
+        <v>941.33100000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.923000</v>
+        <v>-118.923</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>22533.648709</v>
+        <v>22533.648709000001</v>
       </c>
       <c r="Q2" s="1">
         <v>6.259347</v>
       </c>
       <c r="R2" s="1">
-        <v>947.685000</v>
+        <v>947.68499999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.595000</v>
+        <v>-103.595</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>22544.251192</v>
       </c>
       <c r="V2" s="1">
-        <v>6.262292</v>
+        <v>6.2622920000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>953.941000</v>
+        <v>953.94100000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.748000</v>
+        <v>-89.748000000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>22554.671641</v>
+        <v>22554.671641000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.265187</v>
+        <v>6.2651870000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.238000</v>
+        <v>961.23800000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.312100</v>
+        <v>-80.312100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>22565.233469</v>
+        <v>22565.233468999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.268120</v>
+        <v>6.2681199999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.994000</v>
+        <v>965.99400000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.904600</v>
+        <v>-79.904600000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>22575.647486</v>
+        <v>22575.647486000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.271013</v>
+        <v>6.2710129999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.867000</v>
+        <v>973.86699999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.723700</v>
+        <v>-87.723699999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>22586.224143</v>
+        <v>22586.224142999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.273951</v>
+        <v>6.2739510000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.993000</v>
+        <v>982.99300000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>22597.520218</v>
+        <v>22597.520218000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.277089</v>
+        <v>6.2770890000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.323000</v>
+        <v>994.32299999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.472000</v>
+        <v>-124.47199999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>22608.445450</v>
+        <v>22608.445449999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.280124</v>
+        <v>6.2801239999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.360000</v>
+        <v>-143.36000000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>22619.428355</v>
@@ -646,348 +1062,348 @@
         <v>6.283175</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.088000</v>
+        <v>-229.08799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>22630.452405</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.286237</v>
+        <v>6.2862369999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.270000</v>
+        <v>1129.27</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.591000</v>
+        <v>-366.59100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>22641.627271</v>
+        <v>22641.627271000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.289341</v>
+        <v>6.2893410000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.339000</v>
+        <v>-578.33900000000006</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>22652.681925</v>
+        <v>22652.681925000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.292412</v>
+        <v>6.2924119999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.660000</v>
+        <v>1411.66</v>
       </c>
       <c r="BV2" s="1">
-        <v>-804.198000</v>
+        <v>-804.19799999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>22663.092139</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.295303</v>
+        <v>6.2953029999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.630000</v>
+        <v>1574.63</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>22674.052731</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.298348</v>
+        <v>6.2983479999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.000000</v>
+        <v>1987</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1587.410000</v>
+        <v>-1587.41</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>22503.325330</v>
+        <v>22503.32533</v>
       </c>
       <c r="B3" s="1">
-        <v>6.250924</v>
+        <v>6.2509240000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>902.330000</v>
+        <v>902.33</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.147000</v>
+        <v>-196.14699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>22513.423839</v>
+        <v>22513.423838999999</v>
       </c>
       <c r="G3" s="1">
-        <v>6.253729</v>
+        <v>6.2537289999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>919.339000</v>
+        <v>919.33900000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.357000</v>
+        <v>-166.357</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>22523.564574</v>
       </c>
       <c r="L3" s="1">
-        <v>6.256546</v>
+        <v>6.2565460000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>941.219000</v>
+        <v>941.21900000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.874000</v>
+        <v>-118.874</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>22534.070804</v>
+        <v>22534.070803999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.259464</v>
+        <v>6.2594640000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>947.704000</v>
+        <v>947.70399999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.566000</v>
+        <v>-103.566</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>22544.613766</v>
+        <v>22544.613765999999</v>
       </c>
       <c r="V3" s="1">
-        <v>6.262393</v>
+        <v>6.2623930000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>954.016000</v>
+        <v>954.01599999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.829900</v>
+        <v>-89.829899999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>22555.038680</v>
+        <v>22555.038680000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.265289</v>
+        <v>6.2652890000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.137000</v>
+        <v>961.13699999999994</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.275700</v>
+        <v>-80.275700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>22565.612394</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.268226</v>
+        <v>6.2682260000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.002000</v>
+        <v>966.00199999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.905900</v>
+        <v>-79.905900000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>22576.383517</v>
+        <v>22576.383516999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.271218</v>
+        <v>6.2712180000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.877000</v>
+        <v>973.87699999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.715600</v>
+        <v>-87.715599999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>22586.971134</v>
+        <v>22586.971133999999</v>
       </c>
       <c r="AP3" s="1">
         <v>6.274159</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.991000</v>
+        <v>982.99099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>22597.939649</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.277205</v>
+        <v>6.2772050000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.318000</v>
+        <v>994.31799999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.474000</v>
+        <v>-124.474</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>22608.835266</v>
+        <v>22608.835265999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.280232</v>
+        <v>6.2802319999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.384000</v>
+        <v>-143.38399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>22619.789938</v>
+        <v>22619.789938000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.283275</v>
+        <v>6.2832749999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.093000</v>
+        <v>-229.09299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>22631.175077</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.286438</v>
+        <v>6.2864380000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.310000</v>
+        <v>1129.31</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.606000</v>
+        <v>-366.60599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>22642.366309</v>
+        <v>22642.366309000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.289546</v>
+        <v>6.2895459999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.190000</v>
+        <v>1262.19</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.440000</v>
+        <v>-578.44000000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>22652.839833</v>
+        <v>22652.839833000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.292456</v>
+        <v>6.2924559999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="BV3" s="1">
-        <v>-804.312000</v>
+        <v>-804.31200000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>22663.562873</v>
+        <v>22663.562872999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.295434</v>
+        <v>6.2954340000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1574.700000</v>
+        <v>1574.7</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1039.420000</v>
+        <v>-1039.42</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>22674.645458</v>
+        <v>22674.645457999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.298513</v>
+        <v>6.2985129999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1589.160000</v>
+        <v>-1589.16</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>22503.750366</v>
       </c>
@@ -995,2326 +1411,2326 @@
         <v>6.251042</v>
       </c>
       <c r="C4" s="1">
-        <v>902.550000</v>
+        <v>902.55</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.374000</v>
+        <v>-196.374</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>22513.751732</v>
+        <v>22513.751732000001</v>
       </c>
       <c r="G4" s="1">
-        <v>6.253820</v>
+        <v>6.2538200000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>919.445000</v>
+        <v>919.44500000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.072000</v>
+        <v>-166.072</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>22523.904337</v>
       </c>
       <c r="L4" s="1">
-        <v>6.256640</v>
+        <v>6.25664</v>
       </c>
       <c r="M4" s="1">
-        <v>941.393000</v>
+        <v>941.39300000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.988000</v>
+        <v>-118.988</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>22534.420021</v>
+        <v>22534.420021000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.259561</v>
+        <v>6.2595609999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>947.738000</v>
+        <v>947.73800000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.551000</v>
+        <v>-103.551</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>22544.953032</v>
+        <v>22544.953032000001</v>
       </c>
       <c r="V4" s="1">
-        <v>6.262487</v>
+        <v>6.2624870000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.116000</v>
+        <v>954.11599999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.816800</v>
+        <v>-89.816800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>22555.390841</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.265386</v>
+        <v>6.2653860000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.078000</v>
+        <v>961.07799999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.370200</v>
+        <v>-80.370199999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>22566.299386</v>
+        <v>22566.299385999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.268416</v>
+        <v>6.2684160000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.876600</v>
+        <v>-79.876599999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>22576.732203</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.271315</v>
+        <v>6.2713150000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.884000</v>
+        <v>973.88400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.735400</v>
+        <v>-87.735399999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>22587.329757</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.274258</v>
+        <v>6.2742579999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.997000</v>
+        <v>982.99699999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.763000</v>
+        <v>-102.76300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>22598.305199</v>
+        <v>22598.305198999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.277307</v>
+        <v>6.2773070000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.319000</v>
+        <v>994.31899999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.464000</v>
+        <v>-124.464</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>22609.489522</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.280414</v>
+        <v>6.2804140000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.385000</v>
+        <v>-143.38499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>22620.457026</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.283460</v>
+        <v>6.2834599999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.084000</v>
+        <v>-229.084</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>22631.647300</v>
+        <v>22631.647300000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.286569</v>
+        <v>6.2865690000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.578000</v>
+        <v>-366.57799999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>22642.912901</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.289698</v>
+        <v>6.2896979999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.190000</v>
+        <v>1262.19</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.414000</v>
+        <v>-578.41399999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>22653.251511</v>
+        <v>22653.251510999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.292570</v>
+        <v>6.2925700000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.660000</v>
+        <v>1411.66</v>
       </c>
       <c r="BV4" s="1">
-        <v>-804.346000</v>
+        <v>-804.346</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>22664.019693</v>
+        <v>22664.019692999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.295561</v>
+        <v>6.2955610000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.460000</v>
+        <v>-1039.46</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>22675.188570</v>
+        <v>22675.188569999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.298663</v>
+        <v>6.2986630000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>1987.920000</v>
+        <v>1987.92</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1588.260000</v>
+        <v>-1588.26</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>22504.034573</v>
+        <v>22504.034573000001</v>
       </c>
       <c r="B5" s="1">
-        <v>6.251121</v>
+        <v>6.2511210000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>902.407000</v>
+        <v>902.40700000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.450000</v>
+        <v>-196.45</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>22514.098412</v>
+        <v>22514.098411999999</v>
       </c>
       <c r="G5" s="1">
-        <v>6.253916</v>
+        <v>6.2539160000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>919.419000</v>
+        <v>919.41899999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.337000</v>
+        <v>-166.33699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>22524.249059</v>
+        <v>22524.249059000002</v>
       </c>
       <c r="L5" s="1">
-        <v>6.256736</v>
+        <v>6.2567360000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.352000</v>
+        <v>941.35199999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.047000</v>
+        <v>-119.047</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>22534.765701</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.259657</v>
+        <v>6.2596569999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>947.746000</v>
+        <v>947.74599999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.623000</v>
+        <v>-103.623</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>22545.641304</v>
+        <v>22545.641304000001</v>
       </c>
       <c r="V5" s="1">
-        <v>6.262678</v>
+        <v>6.2626780000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>954.010000</v>
+        <v>954.01</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.792400</v>
+        <v>-89.792400000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>22556.095159</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.265582</v>
+        <v>6.2655820000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.231000</v>
+        <v>961.23099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.327600</v>
+        <v>-80.327600000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>22566.642586</v>
+        <v>22566.642586000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.268512</v>
+        <v>6.2685120000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.018000</v>
+        <v>966.01800000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.874700</v>
+        <v>-79.874700000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>22577.080429</v>
+        <v>22577.080429000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.271411</v>
+        <v>6.2714109999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.868000</v>
+        <v>973.86800000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.725700</v>
+        <v>-87.725700000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>22587.691336</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.274359</v>
+        <v>6.2743589999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.981000</v>
+        <v>982.98099999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>22598.981246</v>
+        <v>22598.981245999999</v>
       </c>
       <c r="AU5" s="1">
         <v>6.277495</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.482000</v>
+        <v>-124.482</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>22609.919024</v>
+        <v>22609.919023999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.280533</v>
+        <v>6.2805330000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.371000</v>
+        <v>-143.37100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>22620.905409</v>
+        <v>22620.905408999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.283585</v>
+        <v>6.2835850000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.079000</v>
+        <v>-229.07900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>22632.023234</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.286673</v>
+        <v>6.2866730000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.598000</v>
+        <v>-366.59800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>22643.277460</v>
+        <v>22643.277460000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.289799</v>
+        <v>6.2897990000000004</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.190000</v>
+        <v>1262.19</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.385000</v>
+        <v>-578.38499999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>22653.680054</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.292689</v>
+        <v>6.2926890000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.520000</v>
+        <v>1411.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-804.392000</v>
+        <v>-804.39200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>22664.470025</v>
+        <v>22664.470024999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.295686</v>
+        <v>6.2956859999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.300000</v>
+        <v>-1039.3</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>22675.726233</v>
+        <v>22675.726233000001</v>
       </c>
       <c r="CD5" s="1">
         <v>6.298813</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.210000</v>
+        <v>1986.21</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1588.020000</v>
+        <v>-1588.02</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>22504.373339</v>
+        <v>22504.373339000002</v>
       </c>
       <c r="B6" s="1">
-        <v>6.251215</v>
+        <v>6.2512150000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>902.249000</v>
+        <v>902.24900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.391000</v>
+        <v>-196.39099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>22514.440169</v>
+        <v>22514.440169000001</v>
       </c>
       <c r="G6" s="1">
-        <v>6.254011</v>
+        <v>6.2540110000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>919.424000</v>
+        <v>919.42399999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.256000</v>
+        <v>-166.256</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>22524.940448</v>
+        <v>22524.940448000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.256928</v>
+        <v>6.2569280000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>941.317000</v>
+        <v>941.31700000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.809000</v>
+        <v>-118.809</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>22535.465587</v>
+        <v>22535.465586999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.259852</v>
+        <v>6.2598520000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>947.703000</v>
+        <v>947.70299999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.590000</v>
+        <v>-103.59</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>22545.989703</v>
+        <v>22545.989702999999</v>
       </c>
       <c r="V6" s="1">
-        <v>6.262775</v>
+        <v>6.2627750000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>954.062000</v>
+        <v>954.06200000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.824000</v>
+        <v>-89.823999999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>22556.434422</v>
+        <v>22556.434421999998</v>
       </c>
       <c r="AA6" s="1">
         <v>6.265676</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.189000</v>
+        <v>961.18899999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.334700</v>
+        <v>-80.334699999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>22566.986842</v>
+        <v>22566.986841999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.268607</v>
+        <v>6.2686070000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.001000</v>
+        <v>966.00099999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.944000</v>
+        <v>-79.944000000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>22577.735642</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.271593</v>
+        <v>6.2715930000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.880000</v>
+        <v>973.88</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.737300</v>
+        <v>-87.737300000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>22588.351022</v>
+        <v>22588.351021999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.274542</v>
+        <v>6.2745420000000003</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.976000</v>
+        <v>982.976</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.756000</v>
+        <v>-102.756</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>22599.429662</v>
+        <v>22599.429661999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.277619</v>
+        <v>6.2776189999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.313000</v>
+        <v>994.31299999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.466000</v>
+        <v>-124.46599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>22610.294000</v>
+        <v>22610.294000000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.280637</v>
+        <v>6.2806369999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.360000</v>
+        <v>-143.36000000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>22621.267025</v>
+        <v>22621.267025000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.283685</v>
+        <v>6.2836850000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.082000</v>
+        <v>-229.08199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>22632.398210</v>
+        <v>22632.398209999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.286777</v>
+        <v>6.2867769999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.300000</v>
+        <v>1129.3</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.585000</v>
+        <v>-366.58499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>22643.694633</v>
+        <v>22643.694632999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.289915</v>
+        <v>6.2899149999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.160000</v>
+        <v>1262.1600000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.405000</v>
+        <v>-578.40499999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>22654.111077</v>
+        <v>22654.111077000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.292809</v>
+        <v>6.2928090000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.540000</v>
+        <v>1411.54</v>
       </c>
       <c r="BV6" s="1">
-        <v>-804.574000</v>
+        <v>-804.57399999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>22664.924855</v>
+        <v>22664.924855000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.295812</v>
+        <v>6.2958119999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.710000</v>
+        <v>1574.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.380000</v>
+        <v>-1039.3800000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>22676.270344</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.298964</v>
+        <v>6.2989639999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1987.140000</v>
+        <v>1987.14</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1589.680000</v>
+        <v>-1589.68</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>22504.710154</v>
       </c>
       <c r="B7" s="1">
-        <v>6.251308</v>
+        <v>6.2513079999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.520000</v>
+        <v>902.52</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.218000</v>
+        <v>-196.21799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>22515.133549</v>
+        <v>22515.133548999998</v>
       </c>
       <c r="G7" s="1">
-        <v>6.254204</v>
+        <v>6.2542039999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>919.226000</v>
+        <v>919.226</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.219000</v>
+        <v>-166.21899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>22525.287152</v>
+        <v>22525.287152000001</v>
       </c>
       <c r="L7" s="1">
-        <v>6.257024</v>
+        <v>6.2570240000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>941.223000</v>
+        <v>941.22299999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.963000</v>
+        <v>-118.96299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>22535.811794</v>
+        <v>22535.811794000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.259948</v>
+        <v>6.2599479999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>947.702000</v>
+        <v>947.702</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.581000</v>
+        <v>-103.581</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>22546.334916</v>
       </c>
       <c r="V7" s="1">
-        <v>6.262871</v>
+        <v>6.2628709999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>954.074000</v>
+        <v>954.07399999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.804300</v>
+        <v>-89.804299999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>22557.080741</v>
+        <v>22557.080741000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.265856</v>
+        <v>6.2658560000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.130000</v>
+        <v>961.13</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.168200</v>
+        <v>-80.168199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>22567.636600</v>
+        <v>22567.636600000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.268788</v>
+        <v>6.2687879999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.072000</v>
+        <v>966.072</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.902300</v>
+        <v>-79.902299999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>22578.126954</v>
+        <v>22578.126953999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.271702</v>
+        <v>6.2717020000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.870000</v>
+        <v>973.87</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.733600</v>
+        <v>-87.733599999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>22588.772588</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.274659</v>
+        <v>6.2746589999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.948000</v>
+        <v>982.94799999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.792000</v>
+        <v>-102.792</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>22599.794189</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.277721</v>
+        <v>6.2777209999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.322000</v>
+        <v>994.322</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.484000</v>
+        <v>-124.48399999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>22610.672943</v>
+        <v>22610.672943000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>6.280742</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.366000</v>
+        <v>-143.36600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>22621.629073</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.283786</v>
+        <v>6.2837860000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.082000</v>
+        <v>-229.08199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>22632.812369</v>
+        <v>22632.812368999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.286892</v>
+        <v>6.2868919999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.594000</v>
+        <v>-366.59399999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>22644.092884</v>
+        <v>22644.092884000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.290026</v>
+        <v>6.2900260000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.408000</v>
+        <v>-578.40800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>22654.521271</v>
+        <v>22654.521271000001</v>
       </c>
       <c r="BT7" s="1">
         <v>6.292923</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.380000</v>
+        <v>1411.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-804.537000</v>
+        <v>-804.53700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>22665.368279</v>
+        <v>22665.368278999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.295936</v>
+        <v>6.2959360000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.580000</v>
+        <v>1574.58</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1039.400000</v>
+        <v>-1039.4000000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>22676.805528</v>
+        <v>22676.805528000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.299113</v>
+        <v>6.2991130000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.210000</v>
+        <v>1987.21</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1587.480000</v>
+        <v>-1587.48</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>22505.397579</v>
       </c>
       <c r="B8" s="1">
-        <v>6.251499</v>
+        <v>6.2514989999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.257000</v>
+        <v>902.25699999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.310000</v>
+        <v>-196.31</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>22515.476781</v>
+        <v>22515.476781000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6.254299</v>
+        <v>6.2542989999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>919.318000</v>
+        <v>919.31799999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.573000</v>
+        <v>-166.57300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>22525.633887</v>
       </c>
       <c r="L8" s="1">
-        <v>6.257121</v>
+        <v>6.2571209999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>941.132000</v>
+        <v>941.13199999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.852000</v>
+        <v>-118.852</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>22536.163921</v>
+        <v>22536.163920999999</v>
       </c>
       <c r="Q8" s="1">
         <v>6.260046</v>
       </c>
       <c r="R8" s="1">
-        <v>947.718000</v>
+        <v>947.71799999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.553000</v>
+        <v>-103.553</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>22546.982195</v>
+        <v>22546.982195000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.263051</v>
+        <v>6.2630509999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.029000</v>
+        <v>954.029</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.832900</v>
+        <v>-89.832899999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22557.476053</v>
+        <v>22557.476052999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.265966</v>
+        <v>6.2659659999999997</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.074000</v>
+        <v>961.07399999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.270600</v>
+        <v>-80.270600000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>22568.018487</v>
+        <v>22568.018487000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.268894</v>
+        <v>6.2688940000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.031000</v>
+        <v>966.03099999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.901200</v>
+        <v>-79.901200000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>22578.475642</v>
+        <v>22578.475642000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.271799</v>
+        <v>6.2717989999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.874000</v>
+        <v>973.87400000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.738900</v>
+        <v>-87.738900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>22589.159467</v>
+        <v>22589.159467000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.274767</v>
+        <v>6.2747669999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.963000</v>
+        <v>982.96299999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.792000</v>
+        <v>-102.792</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>22600.159278</v>
+        <v>22600.159277999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.277822</v>
+        <v>6.2778219999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.325000</v>
+        <v>994.32500000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.479000</v>
+        <v>-124.479</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>22611.087103</v>
+        <v>22611.087103000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.280858</v>
+        <v>6.2808580000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.355000</v>
+        <v>-143.35499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>22622.048227</v>
+        <v>22622.048226999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.283902</v>
+        <v>6.2839020000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.220000</v>
+        <v>1049.22</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.090000</v>
+        <v>-229.09</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>22633.174982</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.286993</v>
+        <v>6.2869929999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.601000</v>
+        <v>-366.601</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>22644.515978</v>
+        <v>22644.515977999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.290143</v>
+        <v>6.2901429999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.368000</v>
+        <v>-578.36800000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>22654.951301</v>
+        <v>22654.951301000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.293042</v>
+        <v>6.2930419999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.390000</v>
+        <v>1411.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-804.615000</v>
+        <v>-804.61500000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>22665.794374</v>
+        <v>22665.794374000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.296054</v>
+        <v>6.2960539999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.690000</v>
+        <v>1574.69</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1039.450000</v>
+        <v>-1039.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>22677.345671</v>
+        <v>22677.345670999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.299263</v>
+        <v>6.2992629999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.000000</v>
+        <v>1986</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1589.490000</v>
+        <v>-1589.49</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>22505.742826</v>
+        <v>22505.742826000002</v>
       </c>
       <c r="B9" s="1">
         <v>6.251595</v>
       </c>
       <c r="C9" s="1">
-        <v>902.243000</v>
+        <v>902.24300000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.095000</v>
+        <v>-196.095</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>22515.818556</v>
+        <v>22515.818555999998</v>
       </c>
       <c r="G9" s="1">
-        <v>6.254394</v>
+        <v>6.2543939999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>919.111000</v>
+        <v>919.11099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.402000</v>
+        <v>-166.40199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>22526.288080</v>
+        <v>22526.288079999998</v>
       </c>
       <c r="L9" s="1">
-        <v>6.257302</v>
+        <v>6.2573020000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.328000</v>
+        <v>941.32799999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.060000</v>
+        <v>-119.06</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>22536.820624</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.260228</v>
+        <v>6.2602279999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>947.737000</v>
+        <v>947.73699999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.593000</v>
+        <v>-103.593</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>22547.364579</v>
+        <v>22547.364579000001</v>
       </c>
       <c r="V9" s="1">
-        <v>6.263157</v>
+        <v>6.2631569999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>953.948000</v>
+        <v>953.94799999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.801600</v>
+        <v>-89.801599999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>22557.827685</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.266063</v>
+        <v>6.2660629999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.119000</v>
+        <v>961.11900000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.324300</v>
+        <v>-80.324299999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>22568.357751</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.268988</v>
+        <v>6.2689880000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.033000</v>
+        <v>966.03300000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.902000</v>
+        <v>-79.902000000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>22578.821849</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.271895</v>
+        <v>6.2718949999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.869000</v>
+        <v>973.86900000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.717100</v>
+        <v>-87.717100000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>22589.519563</v>
+        <v>22589.519563000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.274867</v>
+        <v>6.2748670000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.976000</v>
+        <v>982.976</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.776000</v>
+        <v>-102.776</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>22600.586557</v>
+        <v>22600.586556999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.277941</v>
+        <v>6.2779410000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.324000</v>
+        <v>994.32399999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.472000</v>
+        <v>-124.47199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>22611.389202</v>
+        <v>22611.389201999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.280941</v>
+        <v>6.2809410000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.365000</v>
+        <v>-143.36500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>22622.351265</v>
+        <v>22622.351265000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.283986</v>
+        <v>6.2839859999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.060000</v>
+        <v>-229.06</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>22633.550164</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.287097</v>
+        <v>6.2870970000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.580000</v>
+        <v>-366.58</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>22644.911814</v>
+        <v>22644.911813999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.290253</v>
+        <v>6.2902529999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.449000</v>
+        <v>-578.44899999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>22655.379844</v>
+        <v>22655.379843999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.293161</v>
+        <v>6.2931609999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.360000</v>
+        <v>1411.36</v>
       </c>
       <c r="BV9" s="1">
-        <v>-804.499000</v>
+        <v>-804.49900000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>22666.217957</v>
+        <v>22666.217957000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.296172</v>
+        <v>6.2961720000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.760000</v>
+        <v>1574.76</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>22677.884328</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.299412</v>
+        <v>6.2994120000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.940000</v>
+        <v>1987.94</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1588.320000</v>
+        <v>-1588.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>22506.388586</v>
+        <v>22506.388586000001</v>
       </c>
       <c r="B10" s="1">
-        <v>6.251775</v>
+        <v>6.2517750000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>902.378000</v>
+        <v>902.37800000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.316000</v>
+        <v>-196.316</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>22516.472283</v>
+        <v>22516.472282999999</v>
       </c>
       <c r="G10" s="1">
-        <v>6.254576</v>
+        <v>6.2545760000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.196000</v>
+        <v>919.19600000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.543000</v>
+        <v>-166.54300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>22526.671486</v>
+        <v>22526.671485999999</v>
       </c>
       <c r="L10" s="1">
         <v>6.257409</v>
       </c>
       <c r="M10" s="1">
-        <v>941.320000</v>
+        <v>941.32</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.748000</v>
+        <v>-118.748</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>22537.207008</v>
+        <v>22537.207008000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.260335</v>
+        <v>6.2603350000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>947.751000</v>
+        <v>947.75099999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.598000</v>
+        <v>-103.598</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>22547.706820</v>
+        <v>22547.706819999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.263252</v>
+        <v>6.2632519999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>954.142000</v>
+        <v>954.14200000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.824100</v>
+        <v>-89.824100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>22558.176409</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.266160</v>
+        <v>6.2661600000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.128000</v>
+        <v>961.12800000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.336100</v>
+        <v>-80.336100000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>22568.704454</v>
+        <v>22568.704453999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.269085</v>
+        <v>6.2690849999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.019000</v>
+        <v>966.01900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.903100</v>
+        <v>-79.903099999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>22579.238300</v>
+        <v>22579.238300000001</v>
       </c>
       <c r="AK10" s="1">
         <v>6.272011</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.863000</v>
+        <v>973.86300000000006</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.732600</v>
+        <v>-87.732600000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>22589.953066</v>
+        <v>22589.953065999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.274987</v>
+        <v>6.2749870000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.982000</v>
+        <v>982.98199999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.790000</v>
+        <v>-102.79</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>22600.887372</v>
+        <v>22600.887372000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.278024</v>
+        <v>6.2780240000000003</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.298000</v>
+        <v>994.298</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.473000</v>
+        <v>-124.473</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>22611.751245</v>
+        <v>22611.751244999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.281042</v>
+        <v>6.2810420000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.372000</v>
+        <v>-143.37200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>22622.711840</v>
+        <v>22622.71184</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.284087</v>
+        <v>6.2840870000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.082000</v>
+        <v>-229.08199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>22633.925888</v>
+        <v>22633.925888000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.287202</v>
+        <v>6.2872019999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.593000</v>
+        <v>-366.59300000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>22645.339360</v>
+        <v>22645.339360000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.290372</v>
+        <v>6.2903719999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.190000</v>
+        <v>1262.19</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.417000</v>
+        <v>-578.41700000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>22655.795987</v>
+        <v>22655.795987000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.293277</v>
+        <v>6.2932769999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1411.270000</v>
+        <v>1411.27</v>
       </c>
       <c r="BV10" s="1">
-        <v>-804.561000</v>
+        <v>-804.56100000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>22666.642501</v>
+        <v>22666.642500999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.296290</v>
+        <v>6.2962899999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.720000</v>
+        <v>1574.72</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.410000</v>
+        <v>-1039.4100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>22678.425989</v>
+        <v>22678.425988999999</v>
       </c>
       <c r="CD10" s="1">
         <v>6.299563</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.190000</v>
+        <v>1986.19</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1588.160000</v>
+        <v>-1588.16</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>22506.765049</v>
+        <v>22506.765049000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.251879</v>
+        <v>6.2518789999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>902.345000</v>
+        <v>902.34500000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.243000</v>
+        <v>-196.24299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>22516.854198</v>
+        <v>22516.854198000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.254682</v>
+        <v>6.2546819999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>919.128000</v>
+        <v>919.12800000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.263000</v>
+        <v>-166.26300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>22527.015213</v>
+        <v>22527.015212999999</v>
       </c>
       <c r="L11" s="1">
         <v>6.257504</v>
       </c>
       <c r="M11" s="1">
-        <v>941.489000</v>
+        <v>941.48900000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.831000</v>
+        <v>-118.831</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>22537.555200</v>
+        <v>22537.555199999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.260432</v>
+        <v>6.2604319999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>947.697000</v>
+        <v>947.697</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.595000</v>
+        <v>-103.595</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>22548.053523</v>
+        <v>22548.053522999999</v>
       </c>
       <c r="V11" s="1">
-        <v>6.263348</v>
+        <v>6.2633479999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>954.012000</v>
+        <v>954.01199999999994</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.829900</v>
+        <v>-89.829899999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>22558.594996</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.266276</v>
+        <v>6.2662760000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.147000</v>
+        <v>961.14700000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.328200</v>
+        <v>-80.328199999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>22569.132006</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.269203</v>
+        <v>6.2692030000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.056000</v>
+        <v>966.05600000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.874100</v>
+        <v>-79.874099999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>22579.519226</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.272089</v>
+        <v>6.2720890000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.884000</v>
+        <v>973.88400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.711900</v>
+        <v>-87.7119</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>22590.239258</v>
+        <v>22590.239258000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.275066</v>
+        <v>6.2750659999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.979000</v>
+        <v>982.97900000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>22601.253915</v>
+        <v>22601.253915000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.278126</v>
+        <v>6.2781260000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.327000</v>
+        <v>994.327</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.452000</v>
+        <v>-124.452</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>22612.107869</v>
+        <v>22612.107868999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.281141</v>
+        <v>6.2811409999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.372000</v>
+        <v>-143.37200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>22623.070974</v>
+        <v>22623.070973999998</v>
       </c>
       <c r="BE11" s="1">
         <v>6.284186</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.102000</v>
+        <v>-229.102</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>22634.699651</v>
+        <v>22634.699650999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.287417</v>
+        <v>6.2874169999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.270000</v>
+        <v>1129.27</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>22645.732161</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.290481</v>
+        <v>6.2904809999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.427000</v>
+        <v>-578.42700000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>22656.221555</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.293395</v>
+        <v>6.2933950000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.240000</v>
+        <v>1411.24</v>
       </c>
       <c r="BV11" s="1">
-        <v>-804.547000</v>
+        <v>-804.54700000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>22667.059141</v>
+        <v>22667.059141000002</v>
       </c>
       <c r="BY11" s="1">
         <v>6.296405</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.590000</v>
+        <v>1574.59</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.510000</v>
+        <v>-1039.51</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>22679.269679</v>
+        <v>22679.269679000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.299797</v>
+        <v>6.2997969999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.630000</v>
+        <v>1987.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1588.130000</v>
+        <v>-1588.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>22507.113240</v>
+        <v>22507.113239999999</v>
       </c>
       <c r="B12" s="1">
         <v>6.251976</v>
       </c>
       <c r="C12" s="1">
-        <v>902.396000</v>
+        <v>902.39599999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.342000</v>
+        <v>-196.34200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>22517.197900</v>
+        <v>22517.197899999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6.254777</v>
+        <v>6.2547769999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>919.211000</v>
+        <v>919.21100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.441000</v>
+        <v>-166.441</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>22527.361948</v>
+        <v>22527.361948000002</v>
       </c>
       <c r="L12" s="1">
-        <v>6.257601</v>
+        <v>6.2576010000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>941.224000</v>
+        <v>941.22400000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.906000</v>
+        <v>-118.90600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>22537.908847</v>
+        <v>22537.908846999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.260530</v>
+        <v>6.2605300000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>947.690000</v>
+        <v>947.69</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.584000</v>
+        <v>-103.584</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>22548.472642</v>
+        <v>22548.472642000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.263465</v>
+        <v>6.2634650000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.030000</v>
+        <v>954.03</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.778700</v>
+        <v>-89.778700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>22558.878707</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.266355</v>
+        <v>6.2663549999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.067000</v>
+        <v>961.06700000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.308700</v>
+        <v>-80.308700000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>22569.393927</v>
+        <v>22569.393927000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.269276</v>
+        <v>6.2692759999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.012000</v>
+        <v>966.01199999999994</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.906900</v>
+        <v>-79.906899999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>22579.868904</v>
+        <v>22579.868903999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.272186</v>
+        <v>6.2721859999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.884000</v>
+        <v>973.88400000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.726800</v>
+        <v>-87.726799999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>22590.598895</v>
+        <v>22590.598894999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.275166</v>
+        <v>6.2751659999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.995000</v>
+        <v>982.995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.775000</v>
+        <v>-102.77500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>22601.617979</v>
+        <v>22601.617978999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.278227</v>
+        <v>6.2782270000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.325000</v>
+        <v>994.32500000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.459000</v>
+        <v>-124.459</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>22612.826573</v>
+        <v>22612.826572999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.281341</v>
+        <v>6.2813410000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.403000</v>
+        <v>-143.40299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>22623.795630</v>
+        <v>22623.795630000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.284388</v>
+        <v>6.2843879999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.230000</v>
+        <v>1049.23</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.086000</v>
+        <v>-229.08600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>22635.074624</v>
+        <v>22635.074624000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.287521</v>
+        <v>6.2875209999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.310000</v>
+        <v>1129.31</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.571000</v>
+        <v>-366.57100000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>22646.150288</v>
+        <v>22646.150288000001</v>
       </c>
       <c r="BO12" s="1">
         <v>6.290597</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.391000</v>
+        <v>-578.39099999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>22656.647618</v>
+        <v>22656.647617999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.293513</v>
+        <v>6.2935129999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.110000</v>
+        <v>1411.11</v>
       </c>
       <c r="BV12" s="1">
-        <v>-804.564000</v>
+        <v>-804.56399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>22667.815043</v>
+        <v>22667.815042999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.296615</v>
+        <v>6.2966150000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.690000</v>
+        <v>1574.69</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>22679.504763</v>
+        <v>22679.504763000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.299862</v>
+        <v>6.2998620000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.740000</v>
+        <v>1987.74</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1587.950000</v>
+        <v>-1587.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>22507.456471</v>
+        <v>22507.456471000001</v>
       </c>
       <c r="B13" s="1">
-        <v>6.252071</v>
+        <v>6.2520709999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>902.475000</v>
+        <v>902.47500000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.453000</v>
+        <v>-196.453</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>22517.545595</v>
@@ -3323,527 +3739,527 @@
         <v>6.254874</v>
       </c>
       <c r="H13" s="1">
-        <v>919.383000</v>
+        <v>919.38300000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.221000</v>
+        <v>-166.221</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>22527.773596</v>
+        <v>22527.773595999999</v>
       </c>
       <c r="L13" s="1">
-        <v>6.257715</v>
+        <v>6.2577150000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.191000</v>
+        <v>941.19100000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.847000</v>
+        <v>-118.84699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>22538.332431</v>
+        <v>22538.332430999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.260648</v>
+        <v>6.2606479999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>947.735000</v>
+        <v>947.73500000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.551000</v>
+        <v>-103.551</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>22548.740481</v>
+        <v>22548.740481000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.263539</v>
+        <v>6.2635389999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>954.105000</v>
+        <v>954.10500000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.837500</v>
+        <v>-89.837500000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>22559.227395</v>
+        <v>22559.227395000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.266452</v>
+        <v>6.2664520000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.231000</v>
+        <v>961.23099999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.366600</v>
+        <v>-80.366600000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>22569.737658</v>
+        <v>22569.737657999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.269372</v>
+        <v>6.2693719999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.046000</v>
+        <v>966.04600000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.892700</v>
+        <v>-79.892700000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>22580.217623</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.272283</v>
+        <v>6.2722829999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.903000</v>
+        <v>973.90300000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.714100</v>
+        <v>-87.714100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>22591.284330</v>
+        <v>22591.284329999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.275357</v>
+        <v>6.2753569999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.976000</v>
+        <v>982.976</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.759000</v>
+        <v>-102.759</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>22602.349082</v>
+        <v>22602.349082000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.278430</v>
+        <v>6.2784300000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.470000</v>
+        <v>-124.47</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>22613.186205</v>
+        <v>22613.186205000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.281441</v>
+        <v>6.2814410000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.351000</v>
+        <v>-143.351</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>22624.179501</v>
+        <v>22624.179500999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.284494</v>
+        <v>6.2844939999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.076000</v>
+        <v>-229.07599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>22635.451086</v>
+        <v>22635.451086000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.287625</v>
+        <v>6.2876250000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.571000</v>
+        <v>-366.57100000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>22646.852161</v>
+        <v>22646.852160999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.290792</v>
+        <v>6.2907919999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.200000</v>
+        <v>1262.2</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.393000</v>
+        <v>-578.39300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>22657.362354</v>
+        <v>22657.362354000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.293712</v>
+        <v>6.2937120000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.090000</v>
+        <v>1411.09</v>
       </c>
       <c r="BV13" s="1">
-        <v>-804.472000</v>
+        <v>-804.47199999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>22667.952931</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.296654</v>
+        <v>6.2966540000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.720000</v>
+        <v>1574.72</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>22680.023571</v>
+        <v>22680.023571000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.300007</v>
+        <v>6.3000069999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.990000</v>
+        <v>1985.99</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1587.750000</v>
+        <v>-1587.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>22507.863192</v>
+        <v>22507.863192000001</v>
       </c>
       <c r="B14" s="1">
-        <v>6.252184</v>
+        <v>6.2521839999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>902.380000</v>
+        <v>902.38</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.314000</v>
+        <v>-196.31399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>22517.959301</v>
+        <v>22517.959300999999</v>
       </c>
       <c r="G14" s="1">
-        <v>6.254989</v>
+        <v>6.2549890000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>918.867000</v>
+        <v>918.86699999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.467000</v>
+        <v>-166.46700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>22528.065742</v>
+        <v>22528.065741999999</v>
       </c>
       <c r="L14" s="1">
-        <v>6.257796</v>
+        <v>6.2577959999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.366000</v>
+        <v>941.36599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.919000</v>
+        <v>-118.919</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>22538.606718</v>
+        <v>22538.606717999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.260724</v>
+        <v>6.2607239999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>947.721000</v>
+        <v>947.721</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.552000</v>
+        <v>-103.55200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>22549.084208</v>
       </c>
       <c r="V14" s="1">
-        <v>6.263635</v>
+        <v>6.2636349999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>954.073000</v>
+        <v>954.07299999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.788200</v>
+        <v>-89.788200000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>22559.581086</v>
+        <v>22559.581085999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.266550</v>
+        <v>6.2665499999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.122000</v>
+        <v>961.12199999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.304300</v>
+        <v>-80.304299999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>22570.080393</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.269467</v>
+        <v>6.2694669999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.015000</v>
+        <v>966.01499999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.906800</v>
+        <v>-79.906800000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>22580.913478</v>
+        <v>22580.913477999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.272476</v>
+        <v>6.2724760000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.886000</v>
+        <v>973.88599999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.736800</v>
+        <v>-87.736800000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>22591.678190</v>
+        <v>22591.678189999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.275466</v>
+        <v>6.2754659999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.993000</v>
+        <v>982.99300000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.771000</v>
+        <v>-102.771</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>22602.737946</v>
+        <v>22602.737946000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.278538</v>
+        <v>6.2785380000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.311000</v>
+        <v>994.31100000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.470000</v>
+        <v>-124.47</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>22613.543787</v>
+        <v>22613.543786999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.281540</v>
+        <v>6.2815399999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.366000</v>
+        <v>-143.36600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>22624.544061</v>
+        <v>22624.544061000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.284596</v>
+        <v>6.2845959999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.071000</v>
+        <v>-229.071</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>22636.133361</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.287815</v>
+        <v>6.2878150000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.571000</v>
+        <v>-366.57100000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>22646.986047</v>
+        <v>22646.986046999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.290829</v>
+        <v>6.2908289999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.170000</v>
+        <v>1262.17</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.410000</v>
+        <v>-578.41</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>22657.494289</v>
+        <v>22657.494288999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.293748</v>
+        <v>6.2937479999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.020000</v>
+        <v>1411.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-804.567000</v>
+        <v>-804.56700000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>22668.380484</v>
+        <v>22668.380484000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.296772</v>
+        <v>6.2967719999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.650000</v>
+        <v>1574.65</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1039.410000</v>
+        <v>-1039.4100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>22680.543874</v>
+        <v>22680.543873999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.300151</v>
+        <v>6.3001509999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.010000</v>
+        <v>1986.01</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1589.630000</v>
+        <v>-1589.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>22508.154343</v>
+        <v>22508.154342999998</v>
       </c>
       <c r="B15" s="1">
-        <v>6.252265</v>
+        <v>6.2522650000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>902.489000</v>
+        <v>902.48900000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.289000</v>
+        <v>-196.28899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>22518.251401</v>
+        <v>22518.251401000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.255070</v>
+        <v>6.2550699999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>919.395000</v>
+        <v>919.39499999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.513000</v>
+        <v>-166.51300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>22528.411451</v>
@@ -3852,13 +4268,13 @@
         <v>6.257892</v>
       </c>
       <c r="M15" s="1">
-        <v>941.328000</v>
+        <v>941.32799999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.828000</v>
+        <v>-118.828</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>22538.953953</v>
@@ -3867,118 +4283,118 @@
         <v>6.260821</v>
       </c>
       <c r="R15" s="1">
-        <v>947.744000</v>
+        <v>947.74400000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.567000</v>
+        <v>-103.56699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>22549.427936</v>
       </c>
       <c r="V15" s="1">
-        <v>6.263730</v>
+        <v>6.2637299999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>953.997000</v>
+        <v>953.99699999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.778300</v>
+        <v>-89.778300000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>22560.272466</v>
+        <v>22560.272465999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.266742</v>
+        <v>6.2667419999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.144000</v>
+        <v>961.14400000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.393100</v>
+        <v>-80.393100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>22570.767812</v>
+        <v>22570.767811999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.269658</v>
+        <v>6.2696579999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.011000</v>
+        <v>966.01099999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.886100</v>
+        <v>-79.886099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>22581.263654</v>
+        <v>22581.263653999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.272573</v>
+        <v>6.2725730000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.870000</v>
+        <v>973.87</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.733800</v>
+        <v>-87.733800000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>22592.053988</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.275571</v>
+        <v>6.2755710000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.984000</v>
+        <v>982.98400000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.763000</v>
+        <v>-102.76300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>22603.101513</v>
+        <v>22603.101513000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.278639</v>
+        <v>6.2786390000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.309000</v>
+        <v>994.30899999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.475000</v>
+        <v>-124.47499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>22614.197018</v>
+        <v>22614.197017999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.281721</v>
+        <v>6.2817210000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.373000</v>
+        <v>-143.37299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>22625.264786</v>
@@ -3987,13 +4403,13 @@
         <v>6.284796</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.107000</v>
+        <v>-229.107</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>22636.246173</v>
@@ -4002,1919 +4418,1919 @@
         <v>6.287846</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.270000</v>
+        <v>1129.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.595000</v>
+        <v>-366.59500000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>22647.394254</v>
+        <v>22647.394253999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.290943</v>
+        <v>6.2909430000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.426000</v>
+        <v>-578.42600000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>22657.930769</v>
+        <v>22657.930768999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.293870</v>
+        <v>6.2938700000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.040000</v>
+        <v>1411.04</v>
       </c>
       <c r="BV15" s="1">
-        <v>-804.450000</v>
+        <v>-804.45</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>22668.796626</v>
+        <v>22668.796625999999</v>
       </c>
       <c r="BY15" s="1">
         <v>6.296888</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.590000</v>
+        <v>1574.59</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1039.260000</v>
+        <v>-1039.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>22681.060706</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.300295</v>
+        <v>6.3002950000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1987.540000</v>
+        <v>1987.54</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1589.310000</v>
+        <v>-1589.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>22508.494103</v>
+        <v>22508.494103000001</v>
       </c>
       <c r="B16" s="1">
-        <v>6.252359</v>
+        <v>6.2523590000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>902.518000</v>
+        <v>902.51800000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.324000</v>
+        <v>-196.32400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>22518.595662</v>
       </c>
       <c r="G16" s="1">
-        <v>6.255165</v>
+        <v>6.2551649999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.251000</v>
+        <v>919.25099999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.752000</v>
+        <v>-165.75200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>22528.755707</v>
       </c>
       <c r="L16" s="1">
-        <v>6.257988</v>
+        <v>6.2579880000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.382000</v>
+        <v>941.38199999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.937000</v>
+        <v>-118.937</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>22539.612146</v>
+        <v>22539.612145999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.261003</v>
+        <v>6.2610029999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>947.723000</v>
+        <v>947.72299999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.614000</v>
+        <v>-103.614</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>22550.115391</v>
+        <v>22550.115390999999</v>
       </c>
       <c r="V16" s="1">
-        <v>6.263921</v>
+        <v>6.2639209999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.076000</v>
+        <v>954.07600000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.728600</v>
+        <v>-89.7286</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>22560.625648</v>
+        <v>22560.625648000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.266840</v>
+        <v>6.2668400000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.152000</v>
+        <v>961.15200000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.426800</v>
+        <v>-80.4268</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>22571.109593</v>
+        <v>22571.109593000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.269753</v>
+        <v>6.2697529999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.014000</v>
+        <v>966.01400000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.866200</v>
+        <v>-79.866200000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>22581.611845</v>
+        <v>22581.611844999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.272670</v>
+        <v>6.2726699999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.878000</v>
+        <v>973.87800000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.749300</v>
+        <v>-87.749300000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>22592.728183</v>
+        <v>22592.728182999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.275758</v>
+        <v>6.2757579999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.008000</v>
+        <v>983.00800000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.774000</v>
+        <v>-102.774</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>22603.772601</v>
+        <v>22603.772601000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.278826</v>
+        <v>6.2788259999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.328000</v>
+        <v>994.32799999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.474000</v>
+        <v>-124.474</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>22614.617626</v>
+        <v>22614.617625999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.281838</v>
+        <v>6.2818379999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.344000</v>
+        <v>-143.34399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>22625.653644</v>
+        <v>22625.653644000002</v>
       </c>
       <c r="BE16" s="1">
         <v>6.284904</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.077000</v>
+        <v>-229.077</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>22636.600814</v>
+        <v>22636.600814000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.287945</v>
+        <v>6.2879449999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.550000</v>
+        <v>-366.55</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>22647.790062</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.291053</v>
+        <v>6.2910529999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.200000</v>
+        <v>1262.2</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.389000</v>
+        <v>-578.38900000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>22658.359808</v>
+        <v>22658.359808000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.293989</v>
+        <v>6.2939889999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.010000</v>
+        <v>1411.01</v>
       </c>
       <c r="BV16" s="1">
-        <v>-804.348000</v>
+        <v>-804.34799999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>22669.242529</v>
+        <v>22669.242528999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.297012</v>
+        <v>6.2970119999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.630000</v>
+        <v>1574.63</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>22681.578033</v>
+        <v>22681.578033000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.300438</v>
+        <v>6.3004379999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1589.390000</v>
+        <v>-1589.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>22508.837830</v>
+        <v>22508.83783</v>
       </c>
       <c r="B17" s="1">
-        <v>6.252455</v>
+        <v>6.2524550000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>902.651000</v>
+        <v>902.65099999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.289000</v>
+        <v>-196.28899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>22518.943320</v>
+        <v>22518.943319999998</v>
       </c>
       <c r="G17" s="1">
-        <v>6.255262</v>
+        <v>6.2552620000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>919.091000</v>
+        <v>919.09100000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.408000</v>
+        <v>-166.40799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>22529.444650</v>
+        <v>22529.444650000001</v>
       </c>
       <c r="L17" s="1">
-        <v>6.258179</v>
+        <v>6.2581790000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>941.343000</v>
+        <v>941.34299999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.875000</v>
+        <v>-118.875</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>22539.997997</v>
+        <v>22539.997996999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.261111</v>
+        <v>6.2611109999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>947.715000</v>
+        <v>947.71500000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.571000</v>
+        <v>-103.571</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>22550.458622</v>
+        <v>22550.458621999998</v>
       </c>
       <c r="V17" s="1">
-        <v>6.264016</v>
+        <v>6.2640159999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>954.079000</v>
+        <v>954.07899999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.826100</v>
+        <v>-89.826099999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>22560.973810</v>
+        <v>22560.97381</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.266937</v>
+        <v>6.2669370000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.136000</v>
+        <v>961.13599999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.235400</v>
+        <v>-80.235399999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>22571.455762</v>
+        <v>22571.455762000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.269849</v>
+        <v>6.2698489999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.063000</v>
+        <v>966.06299999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.905000</v>
+        <v>-79.905000000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>22582.262597</v>
+        <v>22582.262597000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.272851</v>
+        <v>6.2728510000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.871000</v>
+        <v>973.87099999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.750300</v>
+        <v>-87.750299999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>22593.147798</v>
+        <v>22593.147798000002</v>
       </c>
       <c r="AP17" s="1">
         <v>6.275874</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.017000</v>
+        <v>983.01700000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>22604.225945</v>
+        <v>22604.225944999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.278952</v>
+        <v>6.2789520000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.312000</v>
+        <v>994.31200000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.450000</v>
+        <v>-124.45</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>22615.005993</v>
+        <v>22615.005992999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.281946</v>
+        <v>6.2819459999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.356000</v>
+        <v>-143.35599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>22626.017674</v>
+        <v>22626.017673999999</v>
       </c>
       <c r="BE17" s="1">
         <v>6.285005</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.230000</v>
+        <v>1049.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.075000</v>
+        <v>-229.07499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>22636.976781</v>
+        <v>22636.976781000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>6.288049</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.260000</v>
+        <v>1129.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.588000</v>
+        <v>-366.58800000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>22648.211694</v>
+        <v>22648.211694000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.291170</v>
+        <v>6.2911700000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.403000</v>
+        <v>-578.40300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>22658.789877</v>
+        <v>22658.789876999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.294108</v>
+        <v>6.2941079999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.870000</v>
+        <v>1410.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-804.350000</v>
+        <v>-804.35</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>22669.664626</v>
+        <v>22669.664626000002</v>
       </c>
       <c r="BY17" s="1">
         <v>6.297129</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.790000</v>
+        <v>1574.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.470000</v>
+        <v>-1039.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>22682.129223</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.300591</v>
+        <v>6.3005909999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.860000</v>
+        <v>1985.86</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1589.410000</v>
+        <v>-1589.41</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>22509.520357</v>
+        <v>22509.520357000001</v>
       </c>
       <c r="B18" s="1">
-        <v>6.252645</v>
+        <v>6.2526450000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>902.368000</v>
+        <v>902.36800000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.157000</v>
+        <v>-196.15700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>22519.637721</v>
+        <v>22519.637720999999</v>
       </c>
       <c r="G18" s="1">
-        <v>6.255455</v>
+        <v>6.2554550000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>919.201000</v>
+        <v>919.20100000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.517000</v>
+        <v>-166.517</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>22529.793317</v>
       </c>
       <c r="L18" s="1">
-        <v>6.258276</v>
+        <v>6.2582760000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>941.259000</v>
+        <v>941.25900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.960000</v>
+        <v>-118.96</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>22540.347677</v>
+        <v>22540.347677000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.261208</v>
+        <v>6.2612079999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.726000</v>
+        <v>947.726</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.600000</v>
+        <v>-103.6</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>22550.801854</v>
+        <v>22550.801854000001</v>
       </c>
       <c r="V18" s="1">
-        <v>6.264112</v>
+        <v>6.2641119999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.039000</v>
+        <v>954.03899999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.760200</v>
+        <v>-89.760199999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>22561.623072</v>
+        <v>22561.623071999999</v>
       </c>
       <c r="AA18" s="1">
         <v>6.267118</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.163000</v>
+        <v>961.16300000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.312200</v>
+        <v>-80.312200000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>22572.107506</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.270030</v>
+        <v>6.2700300000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.016000</v>
+        <v>966.01599999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.886000</v>
+        <v>-79.885999999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>22582.658404</v>
+        <v>22582.658404000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.272961</v>
+        <v>6.2729609999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.893000</v>
+        <v>973.89300000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.741000</v>
+        <v>-87.741</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>22593.524301</v>
+        <v>22593.524301000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.275979</v>
+        <v>6.2759790000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.994000</v>
+        <v>982.99400000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>22604.592984</v>
+        <v>22604.592983999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.279054</v>
+        <v>6.2790540000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.468000</v>
+        <v>-124.468</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>22615.360634</v>
+        <v>22615.360634000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.282045</v>
+        <v>6.2820450000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.371000</v>
+        <v>-143.37100000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>22626.437294</v>
+        <v>22626.437293999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.285121</v>
+        <v>6.2851210000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.080000</v>
+        <v>-229.08</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>22637.395900</v>
+        <v>22637.3959</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.288166</v>
+        <v>6.2881660000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.567000</v>
+        <v>-366.56700000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>22648.611934</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.291281</v>
+        <v>6.2912809999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.150000</v>
+        <v>1262.1500000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.378000</v>
+        <v>-578.37800000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>22659.202548</v>
+        <v>22659.202548000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.294223</v>
+        <v>6.2942229999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.870000</v>
+        <v>1410.87</v>
       </c>
       <c r="BV18" s="1">
-        <v>-804.207000</v>
+        <v>-804.20699999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>22670.091717</v>
+        <v>22670.091716999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.297248</v>
+        <v>6.2972479999999997</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.660000</v>
+        <v>1574.66</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.540000</v>
+        <v>-1039.54</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>22682.658817</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.300739</v>
+        <v>6.3007390000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.470000</v>
+        <v>1987.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1589.320000</v>
+        <v>-1589.32</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>22509.864580</v>
+        <v>22509.864580000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.252740</v>
+        <v>6.2527400000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>902.203000</v>
+        <v>902.20299999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.359000</v>
+        <v>-196.35900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>22519.977974</v>
+        <v>22519.977974000001</v>
       </c>
       <c r="G19" s="1">
-        <v>6.255549</v>
+        <v>6.2555490000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>919.190000</v>
+        <v>919.19</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.185000</v>
+        <v>-166.185</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>22530.142711</v>
       </c>
       <c r="L19" s="1">
-        <v>6.258373</v>
+        <v>6.2583729999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>941.392000</v>
+        <v>941.39200000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.842000</v>
+        <v>-118.842</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>22540.997931</v>
+        <v>22540.997931000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.261388</v>
+        <v>6.2613880000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>947.721000</v>
+        <v>947.721</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.551000</v>
+        <v>-103.551</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>22551.445661</v>
+        <v>22551.445661000002</v>
       </c>
       <c r="V19" s="1">
-        <v>6.264290</v>
+        <v>6.2642899999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>953.980000</v>
+        <v>953.98</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.839600</v>
+        <v>-89.839600000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>22562.016895</v>
+        <v>22562.016895000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.267227</v>
+        <v>6.2672270000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.000000</v>
+        <v>961</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.220200</v>
+        <v>-80.220200000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>22572.482496</v>
+        <v>22572.482496000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.270134</v>
+        <v>6.2701339999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.070000</v>
+        <v>966.07</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.914400</v>
+        <v>-79.914400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>22583.006596</v>
+        <v>22583.006595999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.273057</v>
+        <v>6.2730569999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.889000</v>
+        <v>973.88900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.700400</v>
+        <v>-87.700400000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>22593.905713</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.276085</v>
+        <v>6.2760850000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.991000</v>
+        <v>982.99099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>22604.958536</v>
+        <v>22604.958535999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.279155</v>
+        <v>6.2791550000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.315000</v>
+        <v>994.31500000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.475000</v>
+        <v>-124.47499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>22615.782767</v>
+        <v>22615.782767000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.282162</v>
+        <v>6.2821619999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.366000</v>
+        <v>-143.36600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>22626.737865</v>
+        <v>22626.737864999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.285205</v>
+        <v>6.2852050000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.079000</v>
+        <v>-229.07900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>22637.737678</v>
+        <v>22637.737678000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.288260</v>
+        <v>6.2882600000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.566000</v>
+        <v>-366.56599999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>22649.031549</v>
+        <v>22649.031548999999</v>
       </c>
       <c r="BO19" s="1">
         <v>6.291398</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.180000</v>
+        <v>1262.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.438000</v>
+        <v>-578.43799999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>22659.678207</v>
+        <v>22659.678207000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.294355</v>
+        <v>6.2943550000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.890000</v>
+        <v>1410.89</v>
       </c>
       <c r="BV19" s="1">
-        <v>-804.259000</v>
+        <v>-804.25900000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>22670.538608</v>
+        <v>22670.538607999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.297372</v>
+        <v>6.2973720000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.670000</v>
+        <v>1574.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>22683.167215</v>
+        <v>22683.167215000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.300880</v>
+        <v>6.3008800000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>1986.630000</v>
+        <v>1986.63</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1587.530000</v>
+        <v>-1587.53</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>22510.205301</v>
+        <v>22510.205301000002</v>
       </c>
       <c r="B20" s="1">
-        <v>6.252835</v>
+        <v>6.2528350000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.455000</v>
+        <v>902.45500000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.249000</v>
+        <v>-196.249</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>22520.326168</v>
       </c>
       <c r="G20" s="1">
-        <v>6.255646</v>
+        <v>6.2556459999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>919.190000</v>
+        <v>919.19</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.060000</v>
+        <v>-166.06</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>22530.795752</v>
+        <v>22530.795752000002</v>
       </c>
       <c r="L20" s="1">
-        <v>6.258554</v>
+        <v>6.2585540000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>941.370000</v>
+        <v>941.37</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.688000</v>
+        <v>-118.688</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>22541.391944</v>
+        <v>22541.391943999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.261498</v>
+        <v>6.2614979999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>947.739000</v>
+        <v>947.73900000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.569000</v>
+        <v>-103.569</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>22551.831053</v>
+        <v>22551.831053000002</v>
       </c>
       <c r="V20" s="1">
-        <v>6.264398</v>
+        <v>6.2643979999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>954.023000</v>
+        <v>954.02300000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.826900</v>
+        <v>-89.826899999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>22562.366607</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.267324</v>
+        <v>6.2673240000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.141000</v>
+        <v>961.14099999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.438200</v>
+        <v>-80.438199999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>22572.828194</v>
+        <v>22572.828194000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.270230</v>
+        <v>6.2702299999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.025000</v>
+        <v>966.02499999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.875300</v>
+        <v>-79.875299999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>22583.351848</v>
+        <v>22583.351847999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.273153</v>
+        <v>6.2731529999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.884000</v>
+        <v>973.88400000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.729500</v>
+        <v>-87.729500000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>22594.318852</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.276200</v>
+        <v>6.2762000000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.023000</v>
+        <v>983.02300000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.756000</v>
+        <v>-102.756</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>22605.374690</v>
+        <v>22605.374690000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.279271</v>
+        <v>6.2792709999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.317000</v>
+        <v>994.31700000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.456000</v>
+        <v>-124.456</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>22616.082312</v>
+        <v>22616.082311999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.282245</v>
+        <v>6.2822449999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.370000</v>
+        <v>-143.37</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>22627.099449</v>
+        <v>22627.099449000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.285305</v>
+        <v>6.2853050000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.088000</v>
+        <v>-229.08799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>22638.125514</v>
+        <v>22638.125513999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.288368</v>
+        <v>6.2883680000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.566000</v>
+        <v>-366.56599999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>22649.425404</v>
+        <v>22649.425404000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.291507</v>
+        <v>6.2915070000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.170000</v>
+        <v>1262.17</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.415000</v>
+        <v>-578.41499999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>22660.341859</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.294539</v>
+        <v>6.2945390000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.870000</v>
+        <v>1410.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-804.141000</v>
+        <v>-804.14099999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>22670.972576</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.297492</v>
+        <v>6.2974920000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>22683.718270</v>
+        <v>22683.718270000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.301033</v>
+        <v>6.3010330000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.200000</v>
+        <v>1986.2</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1589.550000</v>
+        <v>-1589.55</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>22510.852580</v>
+        <v>22510.852579999999</v>
       </c>
       <c r="B21" s="1">
-        <v>6.253015</v>
+        <v>6.2530150000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>902.500000</v>
+        <v>902.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.347000</v>
+        <v>-196.34700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>22520.983862</v>
+        <v>22520.983862000001</v>
       </c>
       <c r="G21" s="1">
-        <v>6.255829</v>
+        <v>6.2558290000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>919.389000</v>
+        <v>919.38900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.517000</v>
+        <v>-166.517</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>22531.176012</v>
       </c>
       <c r="L21" s="1">
-        <v>6.258660</v>
+        <v>6.2586599999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>941.305000</v>
+        <v>941.30499999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.943000</v>
+        <v>-118.943</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>22541.741930</v>
+        <v>22541.74193</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.261595</v>
+        <v>6.2615949999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>947.757000</v>
+        <v>947.75699999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.591000</v>
+        <v>-103.59099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>22552.175774</v>
+        <v>22552.175773999999</v>
       </c>
       <c r="V21" s="1">
-        <v>6.264493</v>
+        <v>6.2644929999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.101000</v>
+        <v>954.101</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.806400</v>
+        <v>-89.806399999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>22562.712288</v>
+        <v>22562.712287999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.267420</v>
+        <v>6.2674200000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.145000</v>
+        <v>961.14499999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.313800</v>
+        <v>-80.313800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>22573.195728</v>
+        <v>22573.195727999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.270332</v>
+        <v>6.2703319999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.036000</v>
+        <v>966.03599999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.913100</v>
+        <v>-79.9131</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>22583.763524</v>
+        <v>22583.763524000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.273268</v>
+        <v>6.2732679999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.893000</v>
+        <v>973.89300000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.727200</v>
+        <v>-87.727199999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>22594.624884</v>
+        <v>22594.624884000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.276285</v>
+        <v>6.2762849999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.999000</v>
+        <v>982.99900000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.752000</v>
+        <v>-102.752</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>22605.687158</v>
+        <v>22605.687158000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.279358</v>
+        <v>6.2793580000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.439000</v>
+        <v>-124.43899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>22616.442903</v>
+        <v>22616.442902999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.282345</v>
+        <v>6.2823450000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.361000</v>
+        <v>-143.36099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>22627.459049</v>
+        <v>22627.459049000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.285405</v>
+        <v>6.2854049999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.097000</v>
+        <v>-229.09700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>22638.502475</v>
+        <v>22638.502475000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.288473</v>
+        <v>6.2884729999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.567000</v>
+        <v>-366.56700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>22649.848957</v>
+        <v>22649.848956999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.291625</v>
+        <v>6.2916249999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.180000</v>
+        <v>1262.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.373000</v>
+        <v>-578.37300000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>22660.476744</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.294577</v>
+        <v>6.2945770000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.800000</v>
+        <v>1410.8</v>
       </c>
       <c r="BV21" s="1">
-        <v>-804.077000</v>
+        <v>-804.077</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>22671.393706</v>
+        <v>22671.393705999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.297609</v>
+        <v>6.2976089999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.560000</v>
+        <v>1574.56</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.450000</v>
+        <v>-1039.45</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>22684.257918</v>
+        <v>22684.257917999999</v>
       </c>
       <c r="CD21" s="1">
         <v>6.301183</v>
       </c>
       <c r="CE21" s="1">
-        <v>1987.510000</v>
+        <v>1987.51</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1588.320000</v>
+        <v>-1588.32</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>22511.232546</v>
+        <v>22511.232545999999</v>
       </c>
       <c r="B22" s="1">
-        <v>6.253120</v>
+        <v>6.25312</v>
       </c>
       <c r="C22" s="1">
-        <v>902.499000</v>
+        <v>902.49900000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.213000</v>
+        <v>-196.21299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>22521.362310</v>
+        <v>22521.36231</v>
       </c>
       <c r="G22" s="1">
-        <v>6.255934</v>
+        <v>6.2559339999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>919.336000</v>
+        <v>919.33600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.340000</v>
+        <v>-166.34</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>22531.522391</v>
+        <v>22531.522390999999</v>
       </c>
       <c r="L22" s="1">
         <v>6.258756</v>
       </c>
       <c r="M22" s="1">
-        <v>941.395000</v>
+        <v>941.39499999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.018000</v>
+        <v>-119.018</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>22542.091114</v>
+        <v>22542.091113999999</v>
       </c>
       <c r="Q22" s="1">
         <v>6.261692</v>
       </c>
       <c r="R22" s="1">
-        <v>947.731000</v>
+        <v>947.73099999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.584000</v>
+        <v>-103.584</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>22552.519996</v>
+        <v>22552.519995999999</v>
       </c>
       <c r="V22" s="1">
         <v>6.264589</v>
       </c>
       <c r="W22" s="1">
-        <v>954.047000</v>
+        <v>954.04700000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.801000</v>
+        <v>-89.801000000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>22563.123470</v>
+        <v>22563.123469999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.267534</v>
+        <v>6.2675340000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.092000</v>
+        <v>961.09199999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.166900</v>
+        <v>-80.166899999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>22573.665440</v>
+        <v>22573.665440000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.270463</v>
+        <v>6.2704630000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.966000</v>
+        <v>965.96600000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.853700</v>
+        <v>-79.853700000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>22584.062083</v>
+        <v>22584.062083000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.273351</v>
+        <v>6.2733509999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.880000</v>
+        <v>973.88</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.703700</v>
+        <v>-87.703699999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>22594.984516</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.276385</v>
+        <v>6.2763850000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.001000</v>
+        <v>983.00099999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.768000</v>
+        <v>-102.768</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>22606.051222</v>
+        <v>22606.051221999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.279459</v>
+        <v>6.2794590000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.321000</v>
+        <v>994.32100000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.458000</v>
+        <v>-124.458</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>22616.799031</v>
+        <v>22616.799030999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.282444</v>
+        <v>6.2824439999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.930000</v>
+        <v>1003.93</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.368000</v>
+        <v>-143.36799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>22628.180729</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.285606</v>
+        <v>6.2856059999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.074000</v>
+        <v>-229.07400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>22639.252954</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.288681</v>
+        <v>6.2886810000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.250000</v>
+        <v>1129.25</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.560000</v>
+        <v>-366.56</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>22650.249724</v>
+        <v>22650.249724000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.291736</v>
+        <v>6.2917360000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.430000</v>
+        <v>-578.42999999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>22660.913709</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.294698</v>
+        <v>6.2946980000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.880000</v>
+        <v>1410.88</v>
       </c>
       <c r="BV22" s="1">
-        <v>-803.995000</v>
+        <v>-803.995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>22671.815774</v>
+        <v>22671.815773999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.297727</v>
+        <v>6.2977270000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.670000</v>
+        <v>1574.67</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1039.390000</v>
+        <v>-1039.3900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>22685.100621</v>
+        <v>22685.100621000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.301417</v>
+        <v>6.3014169999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.700000</v>
+        <v>1986.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1589.420000</v>
+        <v>-1589.42</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>22511.575250</v>
+        <v>22511.575250000002</v>
       </c>
       <c r="B23" s="1">
         <v>6.253215</v>
       </c>
       <c r="C23" s="1">
-        <v>902.353000</v>
+        <v>902.35299999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.272000</v>
+        <v>-196.27199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>22521.703062</v>
+        <v>22521.703062000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.256029</v>
+        <v>6.2560289999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>919.480000</v>
+        <v>919.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.413000</v>
+        <v>-166.41300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>22531.866118</v>
+        <v>22531.866118000002</v>
       </c>
       <c r="L23" s="1">
-        <v>6.258852</v>
+        <v>6.2588520000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>941.377000</v>
+        <v>941.37699999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.907000</v>
+        <v>-118.907</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>22542.503289</v>
@@ -5923,345 +6339,345 @@
         <v>6.261806</v>
       </c>
       <c r="R23" s="1">
-        <v>947.722000</v>
+        <v>947.72199999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.589000</v>
+        <v>-103.589</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>22552.936139</v>
+        <v>22552.936139000001</v>
       </c>
       <c r="V23" s="1">
-        <v>6.264704</v>
+        <v>6.2647040000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.039000</v>
+        <v>954.03899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.764000</v>
+        <v>-89.763999999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>22563.423094</v>
+        <v>22563.423094000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.267618</v>
+        <v>6.2676179999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.156000</v>
+        <v>961.15599999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.286800</v>
+        <v>-80.286799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>22573.858881</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.270516</v>
+        <v>6.2705159999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.063000</v>
+        <v>966.06299999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.855300</v>
+        <v>-79.8553</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>22584.409282</v>
+        <v>22584.409282000001</v>
       </c>
       <c r="AK23" s="1">
         <v>6.273447</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.860000</v>
+        <v>973.86</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.714700</v>
+        <v>-87.714699999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>22595.347555</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.276485</v>
+        <v>6.2764850000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.007000</v>
+        <v>983.00699999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.774000</v>
+        <v>-102.774</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>22606.414825</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.279560</v>
+        <v>6.27956</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.340000</v>
+        <v>994.34</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.480000</v>
+        <v>-124.48</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>22617.520742</v>
+        <v>22617.520742000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.282645</v>
+        <v>6.2826449999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.368000</v>
+        <v>-143.36799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>22628.539864</v>
+        <v>22628.539863999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.285706</v>
+        <v>6.2857060000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.066000</v>
+        <v>-229.066</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>22639.625450</v>
+        <v>22639.62545</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.288785</v>
+        <v>6.2887849999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.586000</v>
+        <v>-366.58600000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>22650.664875</v>
+        <v>22650.664874999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.291851</v>
+        <v>6.2918510000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.170000</v>
+        <v>1262.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.409000</v>
+        <v>-578.40899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>22661.628972</v>
+        <v>22661.628971999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.294897</v>
+        <v>6.2948969999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.920000</v>
+        <v>1410.92</v>
       </c>
       <c r="BV23" s="1">
-        <v>-803.989000</v>
+        <v>-803.98900000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>22672.544893</v>
+        <v>22672.544892999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.297929</v>
+        <v>6.2979289999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1039.330000</v>
+        <v>-1039.33</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>22685.336220</v>
+        <v>22685.336220000001</v>
       </c>
       <c r="CD23" s="1">
         <v>6.301482</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.780000</v>
+        <v>1986.78</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1589.530000</v>
+        <v>-1589.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>22511.913057</v>
+        <v>22511.913057000002</v>
       </c>
       <c r="B24" s="1">
-        <v>6.253309</v>
+        <v>6.2533089999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>902.540000</v>
+        <v>902.54</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.209000</v>
+        <v>-196.209</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>22522.047781</v>
+        <v>22522.047781000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.256124</v>
+        <v>6.2561239999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.330000</v>
+        <v>919.33</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.250000</v>
+        <v>-166.25</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>22532.283719</v>
+        <v>22532.283718999999</v>
       </c>
       <c r="L24" s="1">
-        <v>6.258968</v>
+        <v>6.2589680000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>941.232000</v>
+        <v>941.23199999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.010000</v>
+        <v>-119.01</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>22542.787032</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.261885</v>
+        <v>6.2618850000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>947.724000</v>
+        <v>947.72400000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.542000</v>
+        <v>-103.542</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>22553.231260</v>
+        <v>22553.23126</v>
       </c>
       <c r="V24" s="1">
         <v>6.264786</v>
       </c>
       <c r="W24" s="1">
-        <v>954.069000</v>
+        <v>954.06899999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.777800</v>
+        <v>-89.777799999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>22563.772237</v>
+        <v>22563.772237000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.267715</v>
+        <v>6.2677149999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.139000</v>
+        <v>961.13900000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.315400</v>
+        <v>-80.315399999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>22574.202607</v>
+        <v>22574.202606999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.270612</v>
+        <v>6.2706119999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.079000</v>
+        <v>966.07899999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.914600</v>
+        <v>-79.914599999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>22584.756513</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.273543</v>
+        <v>6.2735430000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.874000</v>
+        <v>973.87400000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.718100</v>
+        <v>-87.718100000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>22596.065762</v>
+        <v>22596.065761999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.276685</v>
+        <v>6.2766849999999996</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.014000</v>
+        <v>983.01400000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.774000</v>
+        <v>-102.774</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>22607.146921</v>
@@ -6270,345 +6686,345 @@
         <v>6.279763</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.312000</v>
+        <v>994.31200000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.469000</v>
+        <v>-124.46899999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>22617.897701</v>
+        <v>22617.897701000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.282749</v>
+        <v>6.2827489999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.379000</v>
+        <v>-143.37899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>22628.905879</v>
+        <v>22628.905879000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.285807</v>
+        <v>6.2858070000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.078000</v>
+        <v>-229.078</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>22640.003400</v>
+        <v>22640.003400000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.288890</v>
+        <v>6.2888900000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.290000</v>
+        <v>1129.29</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>22651.371673</v>
+        <v>22651.371673000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.292048</v>
+        <v>6.2920480000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.180000</v>
+        <v>1262.18</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.362000</v>
+        <v>-578.36199999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>22661.743023</v>
+        <v>22661.743022999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.294929</v>
+        <v>6.2949289999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.990000</v>
+        <v>1410.99</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.957000</v>
+        <v>-803.95699999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>22672.660461</v>
+        <v>22672.660460999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.297961</v>
+        <v>6.2979609999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.610000</v>
+        <v>1574.61</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.390000</v>
+        <v>-1039.3900000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>22685.856524</v>
+        <v>22685.856523999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.301627</v>
+        <v>6.3016269999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.880000</v>
+        <v>1987.88</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1588.310000</v>
+        <v>-1588.31</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>22512.324705</v>
+        <v>22512.324704999999</v>
       </c>
       <c r="B25" s="1">
-        <v>6.253424</v>
+        <v>6.2534239999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>902.513000</v>
+        <v>902.51300000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.249000</v>
+        <v>-196.249</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>22522.534852</v>
+        <v>22522.534852000001</v>
       </c>
       <c r="G25" s="1">
-        <v>6.256260</v>
+        <v>6.2562600000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>919.048000</v>
+        <v>919.048</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.193000</v>
+        <v>-166.19300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>22532.581814</v>
+        <v>22532.581814000001</v>
       </c>
       <c r="L25" s="1">
-        <v>6.259051</v>
+        <v>6.2590510000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>941.446000</v>
+        <v>941.44600000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.948000</v>
+        <v>-118.94799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>22543.136680</v>
+        <v>22543.13668</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.261982</v>
+        <v>6.2619819999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>947.737000</v>
+        <v>947.73699999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.577000</v>
+        <v>-103.577</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>22553.571018</v>
+        <v>22553.571017999999</v>
       </c>
       <c r="V25" s="1">
-        <v>6.264881</v>
+        <v>6.2648809999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.068000</v>
+        <v>954.06799999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.865200</v>
+        <v>-89.865200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>22564.117485</v>
+        <v>22564.117484999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.267810</v>
+        <v>6.2678099999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.073000</v>
+        <v>961.07299999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.254000</v>
+        <v>-80.254000000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>22574.890062</v>
+        <v>22574.890061999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.270803</v>
+        <v>6.2708029999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.029000</v>
+        <v>966.029</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.867700</v>
+        <v>-79.867699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>22585.456337</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.273738</v>
+        <v>6.2737379999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.894000</v>
+        <v>973.89400000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.710400</v>
+        <v>-87.710400000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>22596.426387</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.276785</v>
+        <v>6.2767850000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.998000</v>
+        <v>982.99800000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.769000</v>
+        <v>-102.76900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>22607.548680</v>
+        <v>22607.54868</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.279875</v>
+        <v>6.2798749999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.331000</v>
+        <v>994.33100000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.467000</v>
+        <v>-124.467</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>22618.275162</v>
+        <v>22618.275162000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.282854</v>
+        <v>6.2828540000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.377000</v>
+        <v>-143.37700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>22629.567318</v>
+        <v>22629.567318000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.285991</v>
+        <v>6.2859910000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.089000</v>
+        <v>-229.089</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>22640.722072</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.289089</v>
+        <v>6.2890889999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.280000</v>
+        <v>1129.28</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.566000</v>
+        <v>-366.56599999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>22651.484265</v>
+        <v>22651.484264999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.292079</v>
+        <v>6.2920790000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.160000</v>
+        <v>1262.1600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.397000</v>
+        <v>-578.39700000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>22662.178539</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.295050</v>
+        <v>6.2950499999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.010000</v>
+        <v>1411.01</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.829000</v>
+        <v>-803.82899999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>22673.093965</v>
@@ -6617,120 +7033,120 @@
         <v>6.298082</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.470000</v>
+        <v>-1039.47</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>22686.373387</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.301770</v>
+        <v>6.3017700000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1587.570000</v>
+        <v>-1587.57</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>22512.615857</v>
+        <v>22512.615857000001</v>
       </c>
       <c r="B26" s="1">
-        <v>6.253504</v>
+        <v>6.2535040000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>902.480000</v>
+        <v>902.48</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.406000</v>
+        <v>-196.40600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>22522.739204</v>
+        <v>22522.739204000001</v>
       </c>
       <c r="G26" s="1">
         <v>6.256316</v>
       </c>
       <c r="H26" s="1">
-        <v>919.222000</v>
+        <v>919.22199999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.313000</v>
+        <v>-166.31299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>22532.926038</v>
+        <v>22532.926038000001</v>
       </c>
       <c r="L26" s="1">
-        <v>6.259146</v>
+        <v>6.2591460000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>941.348000</v>
+        <v>941.34799999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.114000</v>
+        <v>-119.114</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>22543.485368</v>
+        <v>22543.485368000001</v>
       </c>
       <c r="Q26" s="1">
         <v>6.262079</v>
       </c>
       <c r="R26" s="1">
-        <v>947.765000</v>
+        <v>947.76499999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.576000</v>
+        <v>-103.57599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>22553.914250</v>
+        <v>22553.914250000002</v>
       </c>
       <c r="V26" s="1">
-        <v>6.264976</v>
+        <v>6.2649759999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.078000</v>
+        <v>954.07799999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.791000</v>
+        <v>-89.790999999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>22564.816317</v>
+        <v>22564.816317000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.268005</v>
+        <v>6.2680049999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.117000</v>
+        <v>961.11699999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.370000</v>
+        <v>-80.37</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>22575.235279</v>
@@ -6739,88 +7155,88 @@
         <v>6.270899</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.044000</v>
+        <v>966.04399999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.915100</v>
+        <v>-79.915099999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>22585.804358</v>
+        <v>22585.804358000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.273835</v>
+        <v>6.2738350000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.886000</v>
+        <v>973.88599999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.727000</v>
+        <v>-87.727000000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>22596.787938</v>
+        <v>22596.787938000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.276886</v>
+        <v>6.2768860000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.007000</v>
+        <v>983.00699999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.748000</v>
+        <v>-102.748</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>22607.929572</v>
+        <v>22607.929572000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.279980</v>
+        <v>6.2799800000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.338000</v>
+        <v>994.33799999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.460000</v>
+        <v>-124.46</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>22618.946710</v>
+        <v>22618.94671</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.283041</v>
+        <v>6.2830409999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.367000</v>
+        <v>-143.36699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>22630.022871</v>
+        <v>22630.022871000001</v>
       </c>
       <c r="BE26" s="1">
         <v>6.286117</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.106000</v>
+        <v>-229.10599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>22641.161527</v>
@@ -6829,75 +7245,76 @@
         <v>6.289212</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.270000</v>
+        <v>1129.27</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.594000</v>
+        <v>-366.59399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>22651.911320</v>
+        <v>22651.911319999999</v>
       </c>
       <c r="BO26" s="1">
         <v>6.292198</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.200000</v>
+        <v>1262.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.388000</v>
+        <v>-578.38800000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>22662.609066</v>
+        <v>22662.609066000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.295169</v>
+        <v>6.2951689999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1411.120000</v>
+        <v>1411.12</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.860000</v>
+        <v>-803.86</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>22673.514076</v>
+        <v>22673.514075999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.298198</v>
+        <v>6.2981980000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>22686.892666</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.301915</v>
+        <v>6.3019150000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.860000</v>
+        <v>1985.86</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1589.160000</v>
+        <v>-1589.16</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>